--- a/staking_rise_gerais.xlsx
+++ b/staking_rise_gerais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t xml:space="preserve">Posição</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve">jehfinhoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blurry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icePablo_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTR_Rivinha</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +184,32 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -249,10 +277,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,16 +285,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -465,10 +493,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,18 +569,47 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -561,19 +618,49 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="Q3" s="3"/>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -583,19 +670,48 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="Q4" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -607,17 +723,46 @@
       <c r="C5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -626,19 +771,49 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="Q6" s="3"/>
+      <c r="C6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -648,18 +823,48 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -669,19 +874,48 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -690,17 +924,49 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -710,26 +976,48 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="Q10" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -741,17 +1029,46 @@
       <c r="C11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="Q11" s="3"/>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>86.6</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -761,18 +1078,48 @@
         <v>30</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>70.6</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -782,20 +1129,48 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="Q13" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -807,18 +1182,46 @@
       <c r="C14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="Q14" s="3"/>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -828,19 +1231,48 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="Q15" s="3"/>
+      <c r="G15" s="0" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -850,18 +1282,199 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
